--- a/UI Designs/Initial UI Designs.xlsx
+++ b/UI Designs/Initial UI Designs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Documents\GitHub\Treasure-Hunt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben-c\OneDrive\Documents\Computer Science\Year 2\Group Software Engineering\Treasure-Hunt\UI Designs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="14_{7814050B-ECB0-46BE-AFB5-ECA1447CE72D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E8580282-E030-435E-B024-85F982CDEDAF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{3631F94A-2FC5-4218-85F4-FF1B9F69CAC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2EDB7A82-B321-4139-A9D1-8D4677248AFC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{2EDB7A82-B321-4139-A9D1-8D4677248AFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -559,16 +559,22 @@
     <xf numFmtId="20" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -580,71 +586,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -682,6 +631,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -711,6 +663,54 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2822,15 +2822,15 @@
       <selection activeCell="BO21" sqref="BO21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="3" width="2.88671875" customWidth="1"/>
-    <col min="4" max="79" width="3.77734375" customWidth="1"/>
-    <col min="80" max="94" width="2.88671875" customWidth="1"/>
+    <col min="1" max="3" width="2.87890625" customWidth="1"/>
+    <col min="4" max="79" width="3.76171875" customWidth="1"/>
+    <col min="80" max="94" width="2.87890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:71" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="4:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:71" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="4:71" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -2840,33 +2840,33 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="33" t="s">
+      <c r="M4" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="R4" s="30" t="s">
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="R4" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="S4" s="30"/>
+      <c r="S4" s="36"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
-      <c r="V4" s="30" t="s">
+      <c r="V4" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="30" t="s">
+      <c r="AB4" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="AC4" s="30"/>
-      <c r="AF4" s="24" t="s">
+      <c r="AC4" s="36"/>
+      <c r="AF4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="AG4" s="24"/>
+      <c r="AG4" s="12"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
@@ -2877,10 +2877,10 @@
       <c r="AO4" s="1"/>
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1"/>
-      <c r="AT4" s="24" t="s">
+      <c r="AT4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="AU4" s="24"/>
+      <c r="AU4" s="12"/>
       <c r="AV4" s="1"/>
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
@@ -2891,10 +2891,10 @@
       <c r="BC4" s="1"/>
       <c r="BD4" s="1"/>
       <c r="BE4" s="1"/>
-      <c r="BH4" s="24" t="s">
+      <c r="BH4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="BI4" s="24"/>
+      <c r="BI4" s="12"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
@@ -2906,205 +2906,205 @@
       <c r="BR4" s="1"/>
       <c r="BS4" s="1"/>
     </row>
-    <row r="5" spans="4:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:71" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D5" s="1"/>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
       <c r="O5" s="1"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="30"/>
-      <c r="AF5" s="24"/>
-      <c r="AG5" s="24"/>
-      <c r="AH5" s="34" t="s">
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="34"/>
-      <c r="AK5" s="34"/>
-      <c r="AL5" s="34"/>
-      <c r="AM5" s="34"/>
-      <c r="AN5" s="34"/>
-      <c r="AO5" s="34"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
       <c r="AP5" s="1"/>
       <c r="AQ5" s="1"/>
-      <c r="AT5" s="24"/>
-      <c r="AU5" s="24"/>
-      <c r="AV5" s="25" t="s">
+      <c r="AT5" s="12"/>
+      <c r="AU5" s="12"/>
+      <c r="AV5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="AW5" s="25"/>
-      <c r="AX5" s="25"/>
-      <c r="AY5" s="25"/>
-      <c r="AZ5" s="25"/>
-      <c r="BA5" s="25"/>
-      <c r="BB5" s="25"/>
-      <c r="BC5" s="25"/>
+      <c r="AW5" s="16"/>
+      <c r="AX5" s="16"/>
+      <c r="AY5" s="16"/>
+      <c r="AZ5" s="16"/>
+      <c r="BA5" s="16"/>
+      <c r="BB5" s="16"/>
+      <c r="BC5" s="16"/>
       <c r="BD5" s="1"/>
       <c r="BE5" s="1"/>
-      <c r="BH5" s="24"/>
-      <c r="BI5" s="24"/>
-      <c r="BJ5" s="34" t="s">
+      <c r="BH5" s="12"/>
+      <c r="BI5" s="12"/>
+      <c r="BJ5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="BK5" s="34"/>
-      <c r="BL5" s="34"/>
-      <c r="BM5" s="34"/>
-      <c r="BN5" s="34"/>
-      <c r="BO5" s="34"/>
-      <c r="BP5" s="34"/>
-      <c r="BQ5" s="34"/>
+      <c r="BK5" s="13"/>
+      <c r="BL5" s="13"/>
+      <c r="BM5" s="13"/>
+      <c r="BN5" s="13"/>
+      <c r="BO5" s="13"/>
+      <c r="BP5" s="13"/>
+      <c r="BQ5" s="13"/>
       <c r="BR5" s="1"/>
       <c r="BS5" s="1"/>
     </row>
-    <row r="6" spans="4:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:71" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D6" s="1"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
       <c r="O6" s="1"/>
       <c r="R6" s="1"/>
-      <c r="S6" s="25" t="s">
+      <c r="S6" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="25"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
       <c r="AC6" s="1"/>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
-      <c r="AH6" s="34"/>
-      <c r="AI6" s="34"/>
-      <c r="AJ6" s="34"/>
-      <c r="AK6" s="34"/>
-      <c r="AL6" s="34"/>
-      <c r="AM6" s="34"/>
-      <c r="AN6" s="34"/>
-      <c r="AO6" s="34"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
       <c r="AP6" s="1"/>
       <c r="AQ6" s="1"/>
       <c r="AT6" s="1"/>
       <c r="AU6" s="1"/>
-      <c r="AV6" s="25"/>
-      <c r="AW6" s="25"/>
-      <c r="AX6" s="25"/>
-      <c r="AY6" s="25"/>
-      <c r="AZ6" s="25"/>
-      <c r="BA6" s="25"/>
-      <c r="BB6" s="25"/>
-      <c r="BC6" s="25"/>
+      <c r="AV6" s="16"/>
+      <c r="AW6" s="16"/>
+      <c r="AX6" s="16"/>
+      <c r="AY6" s="16"/>
+      <c r="AZ6" s="16"/>
+      <c r="BA6" s="16"/>
+      <c r="BB6" s="16"/>
+      <c r="BC6" s="16"/>
       <c r="BD6" s="1"/>
       <c r="BE6" s="1"/>
       <c r="BH6" s="1"/>
       <c r="BI6" s="1"/>
-      <c r="BJ6" s="34"/>
-      <c r="BK6" s="34"/>
-      <c r="BL6" s="34"/>
-      <c r="BM6" s="34"/>
-      <c r="BN6" s="34"/>
-      <c r="BO6" s="34"/>
-      <c r="BP6" s="34"/>
-      <c r="BQ6" s="34"/>
+      <c r="BJ6" s="13"/>
+      <c r="BK6" s="13"/>
+      <c r="BL6" s="13"/>
+      <c r="BM6" s="13"/>
+      <c r="BN6" s="13"/>
+      <c r="BO6" s="13"/>
+      <c r="BP6" s="13"/>
+      <c r="BQ6" s="13"/>
       <c r="BR6" s="1"/>
       <c r="BS6" s="1"/>
     </row>
-    <row r="7" spans="4:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="35" t="s">
+    <row r="7" spans="4:71" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D7" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
       <c r="AC7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
-      <c r="AH7" s="34"/>
-      <c r="AI7" s="34"/>
-      <c r="AJ7" s="34"/>
-      <c r="AK7" s="34"/>
-      <c r="AL7" s="34"/>
-      <c r="AM7" s="34"/>
-      <c r="AN7" s="34"/>
-      <c r="AO7" s="34"/>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="13"/>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="13"/>
       <c r="AP7" s="1"/>
       <c r="AQ7" s="1"/>
       <c r="AT7" s="1"/>
       <c r="AU7" s="1"/>
-      <c r="AV7" s="25"/>
-      <c r="AW7" s="25"/>
-      <c r="AX7" s="25"/>
-      <c r="AY7" s="25"/>
-      <c r="AZ7" s="25"/>
-      <c r="BA7" s="25"/>
-      <c r="BB7" s="25"/>
-      <c r="BC7" s="25"/>
+      <c r="AV7" s="16"/>
+      <c r="AW7" s="16"/>
+      <c r="AX7" s="16"/>
+      <c r="AY7" s="16"/>
+      <c r="AZ7" s="16"/>
+      <c r="BA7" s="16"/>
+      <c r="BB7" s="16"/>
+      <c r="BC7" s="16"/>
       <c r="BD7" s="1"/>
       <c r="BE7" s="1"/>
       <c r="BH7" s="1"/>
       <c r="BI7" s="1"/>
-      <c r="BJ7" s="34"/>
-      <c r="BK7" s="34"/>
-      <c r="BL7" s="34"/>
-      <c r="BM7" s="34"/>
-      <c r="BN7" s="34"/>
-      <c r="BO7" s="34"/>
-      <c r="BP7" s="34"/>
-      <c r="BQ7" s="34"/>
+      <c r="BJ7" s="13"/>
+      <c r="BK7" s="13"/>
+      <c r="BL7" s="13"/>
+      <c r="BM7" s="13"/>
+      <c r="BN7" s="13"/>
+      <c r="BO7" s="13"/>
+      <c r="BP7" s="13"/>
+      <c r="BQ7" s="13"/>
       <c r="BR7" s="1"/>
       <c r="BS7" s="1"/>
     </row>
-    <row r="8" spans="4:71" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:71" x14ac:dyDescent="0.4">
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -3118,29 +3118,29 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="24" t="s">
+      <c r="S8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="24"/>
-      <c r="Z8" s="24"/>
-      <c r="AA8" s="24"/>
-      <c r="AB8" s="24"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
       <c r="AC8" s="1"/>
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
-      <c r="AH8" s="34"/>
-      <c r="AI8" s="34"/>
-      <c r="AJ8" s="34"/>
-      <c r="AK8" s="34"/>
-      <c r="AL8" s="34"/>
-      <c r="AM8" s="34"/>
-      <c r="AN8" s="34"/>
-      <c r="AO8" s="34"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="13"/>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="13"/>
       <c r="AP8" s="1"/>
       <c r="AQ8" s="1"/>
       <c r="AT8" s="1"/>
@@ -3157,43 +3157,43 @@
       <c r="BE8" s="1"/>
       <c r="BH8" s="1"/>
       <c r="BI8" s="1"/>
-      <c r="BJ8" s="34"/>
-      <c r="BK8" s="34"/>
-      <c r="BL8" s="34"/>
-      <c r="BM8" s="34"/>
-      <c r="BN8" s="34"/>
-      <c r="BO8" s="34"/>
-      <c r="BP8" s="34"/>
-      <c r="BQ8" s="34"/>
+      <c r="BJ8" s="13"/>
+      <c r="BK8" s="13"/>
+      <c r="BL8" s="13"/>
+      <c r="BM8" s="13"/>
+      <c r="BN8" s="13"/>
+      <c r="BO8" s="13"/>
+      <c r="BP8" s="13"/>
+      <c r="BQ8" s="13"/>
       <c r="BR8" s="1"/>
       <c r="BS8" s="1"/>
     </row>
-    <row r="9" spans="4:71" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:71" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D9" s="1"/>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
       <c r="O9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="37"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49"/>
       <c r="AC9" s="1"/>
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
@@ -3232,44 +3232,44 @@
       <c r="BR9" s="1"/>
       <c r="BS9" s="1"/>
     </row>
-    <row r="10" spans="4:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:71" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D10" s="1"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
       <c r="O10" s="1"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="36"/>
-      <c r="AA10" s="36"/>
-      <c r="AB10" s="36"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
       <c r="AC10" s="1"/>
       <c r="AF10" s="1"/>
-      <c r="AG10" s="19" t="s">
+      <c r="AG10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="AH10" s="19"/>
-      <c r="AI10" s="19"/>
-      <c r="AJ10" s="19"/>
-      <c r="AK10" s="19"/>
-      <c r="AL10" s="19"/>
-      <c r="AM10" s="19"/>
-      <c r="AN10" s="19"/>
-      <c r="AO10" s="19"/>
-      <c r="AP10" s="19"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="14"/>
+      <c r="AM10" s="14"/>
+      <c r="AN10" s="14"/>
+      <c r="AO10" s="14"/>
+      <c r="AP10" s="14"/>
       <c r="AQ10" s="1"/>
       <c r="AT10" s="1"/>
       <c r="AU10" s="5"/>
@@ -3284,21 +3284,21 @@
       <c r="BD10" s="5"/>
       <c r="BE10" s="1"/>
       <c r="BH10" s="1"/>
-      <c r="BI10" s="19" t="s">
+      <c r="BI10" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="BJ10" s="19"/>
-      <c r="BK10" s="19"/>
-      <c r="BL10" s="19"/>
-      <c r="BM10" s="19"/>
-      <c r="BN10" s="19"/>
-      <c r="BO10" s="19"/>
-      <c r="BP10" s="19"/>
-      <c r="BQ10" s="19"/>
-      <c r="BR10" s="19"/>
+      <c r="BJ10" s="14"/>
+      <c r="BK10" s="14"/>
+      <c r="BL10" s="14"/>
+      <c r="BM10" s="14"/>
+      <c r="BN10" s="14"/>
+      <c r="BO10" s="14"/>
+      <c r="BP10" s="14"/>
+      <c r="BQ10" s="14"/>
+      <c r="BR10" s="14"/>
       <c r="BS10" s="1"/>
     </row>
-    <row r="11" spans="4:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:71" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -3312,30 +3312,30 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="R11" s="1"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="36"/>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="36"/>
-      <c r="AB11" s="36"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
       <c r="AC11" s="1"/>
       <c r="AF11" s="1"/>
-      <c r="AG11" s="33" t="s">
+      <c r="AG11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AH11" s="33"/>
-      <c r="AI11" s="33"/>
-      <c r="AJ11" s="33"/>
-      <c r="AK11" s="33"/>
-      <c r="AL11" s="33"/>
-      <c r="AM11" s="33"/>
-      <c r="AN11" s="33"/>
-      <c r="AO11" s="33"/>
-      <c r="AP11" s="33"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="15"/>
+      <c r="AJ11" s="15"/>
+      <c r="AK11" s="15"/>
+      <c r="AL11" s="15"/>
+      <c r="AM11" s="15"/>
+      <c r="AN11" s="15"/>
+      <c r="AO11" s="15"/>
+      <c r="AP11" s="15"/>
       <c r="AQ11" s="1"/>
       <c r="AT11" s="1"/>
       <c r="AU11" s="5"/>
@@ -3350,27 +3350,27 @@
       <c r="BD11" s="5"/>
       <c r="BE11" s="1"/>
       <c r="BH11" s="1"/>
-      <c r="BI11" s="33" t="s">
+      <c r="BI11" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="BJ11" s="33"/>
-      <c r="BK11" s="33"/>
-      <c r="BL11" s="33"/>
-      <c r="BM11" s="33"/>
-      <c r="BN11" s="33"/>
-      <c r="BO11" s="33"/>
-      <c r="BP11" s="33"/>
-      <c r="BQ11" s="33"/>
-      <c r="BR11" s="33"/>
+      <c r="BJ11" s="15"/>
+      <c r="BK11" s="15"/>
+      <c r="BL11" s="15"/>
+      <c r="BM11" s="15"/>
+      <c r="BN11" s="15"/>
+      <c r="BO11" s="15"/>
+      <c r="BP11" s="15"/>
+      <c r="BQ11" s="15"/>
+      <c r="BR11" s="15"/>
       <c r="BS11" s="1"/>
     </row>
-    <row r="12" spans="4:71" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:71" x14ac:dyDescent="0.4">
       <c r="D12" s="1"/>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="6"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -3383,12 +3383,12 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
-      <c r="V12" s="19" t="s">
+      <c r="V12" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
@@ -3418,27 +3418,27 @@
       <c r="BD12" s="5"/>
       <c r="BE12" s="1"/>
       <c r="BH12" s="1"/>
-      <c r="BI12" s="19" t="s">
+      <c r="BI12" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="BJ12" s="19"/>
-      <c r="BK12" s="19"/>
-      <c r="BL12" s="19"/>
-      <c r="BM12" s="19"/>
-      <c r="BN12" s="19"/>
-      <c r="BO12" s="19"/>
-      <c r="BP12" s="19"/>
-      <c r="BQ12" s="19"/>
-      <c r="BR12" s="19"/>
+      <c r="BJ12" s="14"/>
+      <c r="BK12" s="14"/>
+      <c r="BL12" s="14"/>
+      <c r="BM12" s="14"/>
+      <c r="BN12" s="14"/>
+      <c r="BO12" s="14"/>
+      <c r="BP12" s="14"/>
+      <c r="BQ12" s="14"/>
+      <c r="BR12" s="14"/>
       <c r="BS12" s="1"/>
     </row>
-    <row r="13" spans="4:71" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:71" x14ac:dyDescent="0.4">
       <c r="D13" s="1"/>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -3451,10 +3451,10 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="50"/>
+      <c r="Y13" s="50"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
@@ -3484,21 +3484,21 @@
       <c r="BD13" s="5"/>
       <c r="BE13" s="1"/>
       <c r="BH13" s="1"/>
-      <c r="BI13" s="33" t="s">
+      <c r="BI13" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="BJ13" s="33"/>
-      <c r="BK13" s="33"/>
-      <c r="BL13" s="33"/>
-      <c r="BM13" s="33"/>
-      <c r="BN13" s="33"/>
-      <c r="BO13" s="33"/>
-      <c r="BP13" s="33"/>
-      <c r="BQ13" s="33"/>
-      <c r="BR13" s="33"/>
+      <c r="BJ13" s="15"/>
+      <c r="BK13" s="15"/>
+      <c r="BL13" s="15"/>
+      <c r="BM13" s="15"/>
+      <c r="BN13" s="15"/>
+      <c r="BO13" s="15"/>
+      <c r="BP13" s="15"/>
+      <c r="BQ13" s="15"/>
+      <c r="BR13" s="15"/>
       <c r="BS13" s="1"/>
     </row>
-    <row r="14" spans="4:71" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:71" x14ac:dyDescent="0.4">
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -3515,10 +3515,10 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
+      <c r="V14" s="51"/>
+      <c r="W14" s="51"/>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="51"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
@@ -3548,31 +3548,31 @@
       <c r="BD14" s="5"/>
       <c r="BE14" s="1"/>
       <c r="BH14" s="1"/>
-      <c r="BI14" s="19" t="s">
+      <c r="BI14" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="BJ14" s="19"/>
-      <c r="BK14" s="19"/>
-      <c r="BL14" s="19"/>
-      <c r="BM14" s="19"/>
-      <c r="BN14" s="19"/>
-      <c r="BO14" s="19"/>
-      <c r="BP14" s="19"/>
-      <c r="BQ14" s="19"/>
-      <c r="BR14" s="19"/>
+      <c r="BJ14" s="14"/>
+      <c r="BK14" s="14"/>
+      <c r="BL14" s="14"/>
+      <c r="BM14" s="14"/>
+      <c r="BN14" s="14"/>
+      <c r="BO14" s="14"/>
+      <c r="BP14" s="14"/>
+      <c r="BQ14" s="14"/>
+      <c r="BR14" s="14"/>
       <c r="BS14" s="1"/>
     </row>
-    <row r="15" spans="4:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:71" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="18"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="20"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -3614,21 +3614,21 @@
       <c r="BD15" s="5"/>
       <c r="BE15" s="1"/>
       <c r="BH15" s="1"/>
-      <c r="BI15" s="33" t="s">
+      <c r="BI15" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="BJ15" s="33"/>
-      <c r="BK15" s="33"/>
-      <c r="BL15" s="33"/>
-      <c r="BM15" s="33"/>
-      <c r="BN15" s="33"/>
-      <c r="BO15" s="33"/>
-      <c r="BP15" s="33"/>
-      <c r="BQ15" s="33"/>
-      <c r="BR15" s="33"/>
+      <c r="BJ15" s="15"/>
+      <c r="BK15" s="15"/>
+      <c r="BL15" s="15"/>
+      <c r="BM15" s="15"/>
+      <c r="BN15" s="15"/>
+      <c r="BO15" s="15"/>
+      <c r="BP15" s="15"/>
+      <c r="BQ15" s="15"/>
+      <c r="BR15" s="15"/>
       <c r="BS15" s="1"/>
     </row>
-    <row r="16" spans="4:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:71" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -3643,16 +3643,16 @@
       <c r="O16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="11"/>
-      <c r="T16" s="20">
+      <c r="T16" s="55">
         <v>0</v>
       </c>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="20"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="55"/>
+      <c r="X16" s="55"/>
+      <c r="Y16" s="55"/>
+      <c r="Z16" s="55"/>
+      <c r="AA16" s="55"/>
       <c r="AB16" s="11"/>
       <c r="AC16" s="1"/>
       <c r="AF16" s="1"/>
@@ -3692,7 +3692,7 @@
       <c r="BR16" s="1"/>
       <c r="BS16" s="1"/>
     </row>
-    <row r="17" spans="4:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:71" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -3707,14 +3707,14 @@
       <c r="O17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="11"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="55"/>
+      <c r="Y17" s="55"/>
+      <c r="Z17" s="55"/>
+      <c r="AA17" s="55"/>
       <c r="AB17" s="11"/>
       <c r="AC17" s="1"/>
       <c r="AF17" s="1"/>
@@ -3754,31 +3754,31 @@
       <c r="BR17" s="1"/>
       <c r="BS17" s="1"/>
     </row>
-    <row r="18" spans="4:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:71" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D18" s="1"/>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
       <c r="O18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="11"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="20"/>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="20"/>
+      <c r="T18" s="55"/>
+      <c r="U18" s="55"/>
+      <c r="V18" s="55"/>
+      <c r="W18" s="55"/>
+      <c r="X18" s="55"/>
+      <c r="Y18" s="55"/>
+      <c r="Z18" s="55"/>
+      <c r="AA18" s="55"/>
       <c r="AB18" s="11"/>
       <c r="AC18" s="1"/>
       <c r="AF18" s="1"/>
@@ -3818,29 +3818,29 @@
       <c r="BR18" s="1"/>
       <c r="BS18" s="1"/>
     </row>
-    <row r="19" spans="4:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:71" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D19" s="1"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
       <c r="O19" s="3"/>
       <c r="R19" s="1"/>
       <c r="S19" s="11"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="20"/>
+      <c r="T19" s="55"/>
+      <c r="U19" s="55"/>
+      <c r="V19" s="55"/>
+      <c r="W19" s="55"/>
+      <c r="X19" s="55"/>
+      <c r="Y19" s="55"/>
+      <c r="Z19" s="55"/>
+      <c r="AA19" s="55"/>
       <c r="AB19" s="11"/>
       <c r="AC19" s="1"/>
       <c r="AF19" s="1"/>
@@ -3880,7 +3880,7 @@
       <c r="BR19" s="1"/>
       <c r="BS19" s="1"/>
     </row>
-    <row r="20" spans="4:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:71" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -3942,13 +3942,13 @@
       <c r="BR20" s="1"/>
       <c r="BS20" s="1"/>
     </row>
-    <row r="21" spans="4:71" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:71" x14ac:dyDescent="0.4">
       <c r="D21" s="1"/>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -4006,13 +4006,13 @@
       <c r="BR21" s="1"/>
       <c r="BS21" s="1"/>
     </row>
-    <row r="22" spans="4:71" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:71" x14ac:dyDescent="0.4">
       <c r="D22" s="1"/>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="40"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="17"/>
       <c r="H22" s="6"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -4022,12 +4022,12 @@
       <c r="N22" s="8"/>
       <c r="O22" s="1"/>
       <c r="R22" s="1"/>
-      <c r="S22" s="19" t="s">
+      <c r="S22" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
       <c r="W22" s="2"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="1"/>
@@ -4072,7 +4072,7 @@
       <c r="BR22" s="1"/>
       <c r="BS22" s="1"/>
     </row>
-    <row r="23" spans="4:71" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:71" x14ac:dyDescent="0.4">
       <c r="D23" s="1"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -4086,12 +4086,12 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="R23" s="1"/>
-      <c r="S23" s="19" t="s">
+      <c r="S23" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
       <c r="W23" s="2"/>
       <c r="X23" s="4"/>
       <c r="Y23" s="1"/>
@@ -4114,12 +4114,12 @@
       <c r="AT23" s="1"/>
       <c r="AU23" s="1"/>
       <c r="AV23" s="1"/>
-      <c r="AW23" s="19" t="s">
+      <c r="AW23" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="AX23" s="19"/>
-      <c r="AY23" s="19"/>
-      <c r="AZ23" s="19"/>
+      <c r="AX23" s="14"/>
+      <c r="AY23" s="14"/>
+      <c r="AZ23" s="14"/>
       <c r="BA23" s="2"/>
       <c r="BB23" s="4"/>
       <c r="BC23" s="1"/>
@@ -4138,28 +4138,28 @@
       <c r="BR23" s="1"/>
       <c r="BS23" s="1"/>
     </row>
-    <row r="24" spans="4:71" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:71" x14ac:dyDescent="0.4">
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="18"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="20"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="R24" s="1"/>
-      <c r="S24" s="19" t="s">
+      <c r="S24" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
       <c r="W24" s="2"/>
       <c r="X24" s="4"/>
       <c r="Y24" s="1"/>
@@ -4182,12 +4182,12 @@
       <c r="AT24" s="1"/>
       <c r="AU24" s="1"/>
       <c r="AV24" s="1"/>
-      <c r="AW24" s="19" t="s">
+      <c r="AW24" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="AX24" s="19"/>
-      <c r="AY24" s="19"/>
-      <c r="AZ24" s="19"/>
+      <c r="AX24" s="14"/>
+      <c r="AY24" s="14"/>
+      <c r="AZ24" s="14"/>
       <c r="BA24" s="2"/>
       <c r="BB24" s="4"/>
       <c r="BC24" s="1"/>
@@ -4206,7 +4206,7 @@
       <c r="BR24" s="1"/>
       <c r="BS24" s="1"/>
     </row>
-    <row r="25" spans="4:71" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:71" x14ac:dyDescent="0.4">
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -4220,12 +4220,12 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="R25" s="1"/>
-      <c r="S25" s="19" t="s">
+      <c r="S25" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
       <c r="W25" s="2"/>
       <c r="X25" s="4"/>
       <c r="Y25" s="1"/>
@@ -4248,12 +4248,12 @@
       <c r="AT25" s="1"/>
       <c r="AU25" s="1"/>
       <c r="AV25" s="1"/>
-      <c r="AW25" s="19" t="s">
+      <c r="AW25" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AX25" s="19"/>
-      <c r="AY25" s="19"/>
-      <c r="AZ25" s="19"/>
+      <c r="AX25" s="14"/>
+      <c r="AY25" s="14"/>
+      <c r="AZ25" s="14"/>
       <c r="BA25" s="2"/>
       <c r="BB25" s="4"/>
       <c r="BC25" s="1"/>
@@ -4272,7 +4272,7 @@
       <c r="BR25" s="1"/>
       <c r="BS25" s="1"/>
     </row>
-    <row r="26" spans="4:71" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:71" x14ac:dyDescent="0.4">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -4286,12 +4286,12 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="R26" s="1"/>
-      <c r="S26" s="19" t="s">
+      <c r="S26" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
       <c r="W26" s="2"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="1"/>
@@ -4314,12 +4314,12 @@
       <c r="AT26" s="1"/>
       <c r="AU26" s="1"/>
       <c r="AV26" s="1"/>
-      <c r="AW26" s="19" t="s">
+      <c r="AW26" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="AX26" s="19"/>
-      <c r="AY26" s="19"/>
-      <c r="AZ26" s="19"/>
+      <c r="AX26" s="14"/>
+      <c r="AY26" s="14"/>
+      <c r="AZ26" s="14"/>
       <c r="BA26" s="2"/>
       <c r="BB26" s="4"/>
       <c r="BC26" s="1"/>
@@ -4338,34 +4338,34 @@
       <c r="BR26" s="1"/>
       <c r="BS26" s="1"/>
     </row>
-    <row r="27" spans="4:71" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:71" x14ac:dyDescent="0.4">
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="R27" s="1"/>
-      <c r="S27" s="19" t="s">
+      <c r="S27" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
       <c r="W27" s="2"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="1"/>
-      <c r="Z27" s="19" t="s">
+      <c r="Z27" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AA27" s="19"/>
-      <c r="AB27" s="19"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14"/>
       <c r="AC27" s="3"/>
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
@@ -4382,12 +4382,12 @@
       <c r="AT27" s="1"/>
       <c r="AU27" s="1"/>
       <c r="AV27" s="1"/>
-      <c r="AW27" s="19" t="s">
+      <c r="AW27" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="AX27" s="19"/>
-      <c r="AY27" s="19"/>
-      <c r="AZ27" s="19"/>
+      <c r="AX27" s="14"/>
+      <c r="AY27" s="14"/>
+      <c r="AZ27" s="14"/>
       <c r="BA27" s="2"/>
       <c r="BB27" s="4"/>
       <c r="BC27" s="1"/>
@@ -4406,26 +4406,26 @@
       <c r="BR27" s="1"/>
       <c r="BS27" s="1"/>
     </row>
-    <row r="28" spans="4:71" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:71" x14ac:dyDescent="0.4">
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="R28" s="1"/>
-      <c r="S28" s="19" t="s">
+      <c r="S28" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
       <c r="W28" s="2"/>
       <c r="X28" s="4"/>
       <c r="Y28" s="1"/>
@@ -4448,12 +4448,12 @@
       <c r="AT28" s="1"/>
       <c r="AU28" s="1"/>
       <c r="AV28" s="1"/>
-      <c r="AW28" s="19" t="s">
+      <c r="AW28" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AX28" s="19"/>
-      <c r="AY28" s="19"/>
-      <c r="AZ28" s="19"/>
+      <c r="AX28" s="14"/>
+      <c r="AY28" s="14"/>
+      <c r="AZ28" s="14"/>
       <c r="BA28" s="2"/>
       <c r="BB28" s="4"/>
       <c r="BC28" s="1"/>
@@ -4472,7 +4472,7 @@
       <c r="BR28" s="1"/>
       <c r="BS28" s="1"/>
     </row>
-    <row r="29" spans="4:71" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:71" x14ac:dyDescent="0.4">
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -4512,12 +4512,12 @@
       <c r="AT29" s="1"/>
       <c r="AU29" s="1"/>
       <c r="AV29" s="1"/>
-      <c r="AW29" s="19" t="s">
+      <c r="AW29" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AX29" s="19"/>
-      <c r="AY29" s="19"/>
-      <c r="AZ29" s="19"/>
+      <c r="AX29" s="14"/>
+      <c r="AY29" s="14"/>
+      <c r="AZ29" s="14"/>
       <c r="BA29" s="2"/>
       <c r="BB29" s="4"/>
       <c r="BC29" s="1"/>
@@ -4536,7 +4536,7 @@
       <c r="BR29" s="1"/>
       <c r="BS29" s="1"/>
     </row>
-    <row r="30" spans="4:71" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:71" x14ac:dyDescent="0.4">
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -4598,7 +4598,7 @@
       <c r="BR30" s="1"/>
       <c r="BS30" s="1"/>
     </row>
-    <row r="31" spans="4:71" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:71" x14ac:dyDescent="0.4">
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -4660,12 +4660,12 @@
       <c r="BR31" s="1"/>
       <c r="BS31" s="1"/>
     </row>
-    <row r="34" spans="4:57" x14ac:dyDescent="0.25">
-      <c r="D34" s="30" t="s">
+    <row r="34" spans="4:57" x14ac:dyDescent="0.4">
+      <c r="D34" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -4689,10 +4689,10 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
-      <c r="AF34" s="24" t="s">
+      <c r="AF34" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="AG34" s="24"/>
+      <c r="AG34" s="12"/>
       <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
       <c r="AJ34" s="1"/>
@@ -4703,10 +4703,10 @@
       <c r="AO34" s="1"/>
       <c r="AP34" s="1"/>
       <c r="AQ34" s="1"/>
-      <c r="AT34" s="24" t="s">
+      <c r="AT34" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="AU34" s="24"/>
+      <c r="AU34" s="12"/>
       <c r="AV34" s="3"/>
       <c r="AW34" s="3"/>
       <c r="AX34" s="3"/>
@@ -4718,28 +4718,28 @@
       <c r="BD34" s="3"/>
       <c r="BE34" s="3"/>
     </row>
-    <row r="35" spans="4:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
+    <row r="35" spans="4:57" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="28" t="s">
+      <c r="K35" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="28"/>
-      <c r="R35" s="28"/>
-      <c r="S35" s="28"/>
-      <c r="T35" s="28"/>
-      <c r="U35" s="28"/>
-      <c r="V35" s="28"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="61"/>
+      <c r="N35" s="61"/>
+      <c r="O35" s="61"/>
+      <c r="P35" s="61"/>
+      <c r="Q35" s="61"/>
+      <c r="R35" s="61"/>
+      <c r="S35" s="61"/>
+      <c r="T35" s="61"/>
+      <c r="U35" s="61"/>
+      <c r="V35" s="61"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
@@ -4747,22 +4747,22 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
-      <c r="AF35" s="24"/>
-      <c r="AG35" s="24"/>
-      <c r="AH35" s="25" t="s">
+      <c r="AF35" s="12"/>
+      <c r="AG35" s="12"/>
+      <c r="AH35" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="AI35" s="25"/>
-      <c r="AJ35" s="25"/>
-      <c r="AK35" s="25"/>
-      <c r="AL35" s="25"/>
-      <c r="AM35" s="25"/>
-      <c r="AN35" s="25"/>
-      <c r="AO35" s="25"/>
+      <c r="AI35" s="16"/>
+      <c r="AJ35" s="16"/>
+      <c r="AK35" s="16"/>
+      <c r="AL35" s="16"/>
+      <c r="AM35" s="16"/>
+      <c r="AN35" s="16"/>
+      <c r="AO35" s="16"/>
       <c r="AP35" s="1"/>
       <c r="AQ35" s="1"/>
-      <c r="AT35" s="24"/>
-      <c r="AU35" s="24"/>
+      <c r="AT35" s="12"/>
+      <c r="AU35" s="12"/>
       <c r="AV35" s="3"/>
       <c r="AW35" s="3"/>
       <c r="AX35" s="3"/>
@@ -4774,7 +4774,7 @@
       <c r="BD35" s="3"/>
       <c r="BE35" s="3"/>
     </row>
-    <row r="36" spans="4:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:57" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -4782,18 +4782,18 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="28"/>
-      <c r="S36" s="28"/>
-      <c r="T36" s="28"/>
-      <c r="U36" s="28"/>
-      <c r="V36" s="28"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="61"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="61"/>
+      <c r="P36" s="61"/>
+      <c r="Q36" s="61"/>
+      <c r="R36" s="61"/>
+      <c r="S36" s="61"/>
+      <c r="T36" s="61"/>
+      <c r="U36" s="61"/>
+      <c r="V36" s="61"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
@@ -4803,32 +4803,32 @@
       <c r="AC36" s="1"/>
       <c r="AF36" s="1"/>
       <c r="AG36" s="1"/>
-      <c r="AH36" s="25"/>
-      <c r="AI36" s="25"/>
-      <c r="AJ36" s="25"/>
-      <c r="AK36" s="25"/>
-      <c r="AL36" s="25"/>
-      <c r="AM36" s="25"/>
-      <c r="AN36" s="25"/>
-      <c r="AO36" s="25"/>
+      <c r="AH36" s="16"/>
+      <c r="AI36" s="16"/>
+      <c r="AJ36" s="16"/>
+      <c r="AK36" s="16"/>
+      <c r="AL36" s="16"/>
+      <c r="AM36" s="16"/>
+      <c r="AN36" s="16"/>
+      <c r="AO36" s="16"/>
       <c r="AP36" s="1"/>
       <c r="AQ36" s="1"/>
       <c r="AT36" s="3"/>
       <c r="AU36" s="3"/>
-      <c r="AV36" s="25" t="s">
+      <c r="AV36" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AW36" s="25"/>
-      <c r="AX36" s="25"/>
-      <c r="AY36" s="25"/>
-      <c r="AZ36" s="25"/>
-      <c r="BA36" s="25"/>
-      <c r="BB36" s="25"/>
-      <c r="BC36" s="25"/>
+      <c r="AW36" s="16"/>
+      <c r="AX36" s="16"/>
+      <c r="AY36" s="16"/>
+      <c r="AZ36" s="16"/>
+      <c r="BA36" s="16"/>
+      <c r="BB36" s="16"/>
+      <c r="BC36" s="16"/>
       <c r="BD36" s="3"/>
       <c r="BE36" s="3"/>
     </row>
-    <row r="37" spans="4:57" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:57" x14ac:dyDescent="0.4">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -4836,18 +4836,18 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="28"/>
-      <c r="R37" s="28"/>
-      <c r="S37" s="28"/>
-      <c r="T37" s="28"/>
-      <c r="U37" s="28"/>
-      <c r="V37" s="28"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="61"/>
+      <c r="N37" s="61"/>
+      <c r="O37" s="61"/>
+      <c r="P37" s="61"/>
+      <c r="Q37" s="61"/>
+      <c r="R37" s="61"/>
+      <c r="S37" s="61"/>
+      <c r="T37" s="61"/>
+      <c r="U37" s="61"/>
+      <c r="V37" s="61"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
@@ -4857,155 +4857,155 @@
       <c r="AC37" s="1"/>
       <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
-      <c r="AH37" s="25"/>
-      <c r="AI37" s="25"/>
-      <c r="AJ37" s="25"/>
-      <c r="AK37" s="25"/>
-      <c r="AL37" s="25"/>
-      <c r="AM37" s="25"/>
-      <c r="AN37" s="25"/>
-      <c r="AO37" s="25"/>
+      <c r="AH37" s="16"/>
+      <c r="AI37" s="16"/>
+      <c r="AJ37" s="16"/>
+      <c r="AK37" s="16"/>
+      <c r="AL37" s="16"/>
+      <c r="AM37" s="16"/>
+      <c r="AN37" s="16"/>
+      <c r="AO37" s="16"/>
       <c r="AP37" s="1"/>
       <c r="AQ37" s="1"/>
       <c r="AT37" s="3"/>
       <c r="AU37" s="3"/>
-      <c r="AV37" s="25"/>
-      <c r="AW37" s="25"/>
-      <c r="AX37" s="25"/>
-      <c r="AY37" s="25"/>
-      <c r="AZ37" s="25"/>
-      <c r="BA37" s="25"/>
-      <c r="BB37" s="25"/>
-      <c r="BC37" s="25"/>
+      <c r="AV37" s="16"/>
+      <c r="AW37" s="16"/>
+      <c r="AX37" s="16"/>
+      <c r="AY37" s="16"/>
+      <c r="AZ37" s="16"/>
+      <c r="BA37" s="16"/>
+      <c r="BB37" s="16"/>
+      <c r="BC37" s="16"/>
       <c r="BD37" s="3"/>
       <c r="BE37" s="3"/>
     </row>
-    <row r="38" spans="4:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:57" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D38" s="1"/>
-      <c r="E38" s="54" t="s">
+      <c r="E38" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="56"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="40"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
-      <c r="O38" s="22" t="s">
+      <c r="O38" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="22"/>
-      <c r="U38" s="22"/>
-      <c r="V38" s="22" t="s">
+      <c r="P38" s="47"/>
+      <c r="Q38" s="47"/>
+      <c r="R38" s="47"/>
+      <c r="S38" s="47"/>
+      <c r="T38" s="47"/>
+      <c r="U38" s="47"/>
+      <c r="V38" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="W38" s="22"/>
-      <c r="X38" s="22"/>
-      <c r="Y38" s="23" t="s">
+      <c r="W38" s="47"/>
+      <c r="X38" s="47"/>
+      <c r="Y38" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="Z38" s="23"/>
-      <c r="AA38" s="23"/>
-      <c r="AB38" s="23"/>
+      <c r="Z38" s="58"/>
+      <c r="AA38" s="58"/>
+      <c r="AB38" s="58"/>
       <c r="AC38" s="1"/>
       <c r="AF38" s="1"/>
-      <c r="AG38" s="19"/>
-      <c r="AH38" s="19"/>
-      <c r="AI38" s="19"/>
-      <c r="AJ38" s="19"/>
-      <c r="AK38" s="19"/>
-      <c r="AL38" s="19"/>
-      <c r="AM38" s="19"/>
-      <c r="AN38" s="19"/>
-      <c r="AO38" s="19"/>
-      <c r="AP38" s="19"/>
+      <c r="AG38" s="14"/>
+      <c r="AH38" s="14"/>
+      <c r="AI38" s="14"/>
+      <c r="AJ38" s="14"/>
+      <c r="AK38" s="14"/>
+      <c r="AL38" s="14"/>
+      <c r="AM38" s="14"/>
+      <c r="AN38" s="14"/>
+      <c r="AO38" s="14"/>
+      <c r="AP38" s="14"/>
       <c r="AQ38" s="1"/>
       <c r="AT38" s="3"/>
       <c r="AU38" s="3"/>
-      <c r="AV38" s="25"/>
-      <c r="AW38" s="25"/>
-      <c r="AX38" s="25"/>
-      <c r="AY38" s="25"/>
-      <c r="AZ38" s="25"/>
-      <c r="BA38" s="25"/>
-      <c r="BB38" s="25"/>
-      <c r="BC38" s="25"/>
+      <c r="AV38" s="16"/>
+      <c r="AW38" s="16"/>
+      <c r="AX38" s="16"/>
+      <c r="AY38" s="16"/>
+      <c r="AZ38" s="16"/>
+      <c r="BA38" s="16"/>
+      <c r="BB38" s="16"/>
+      <c r="BC38" s="16"/>
       <c r="BD38" s="3"/>
       <c r="BE38" s="3"/>
     </row>
-    <row r="39" spans="4:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:57" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D39" s="1"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="59"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="43"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="22"/>
-      <c r="U39" s="22"/>
-      <c r="V39" s="22"/>
-      <c r="W39" s="22"/>
-      <c r="X39" s="22"/>
-      <c r="Y39" s="23"/>
-      <c r="Z39" s="23"/>
-      <c r="AA39" s="23"/>
-      <c r="AB39" s="23"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="47"/>
+      <c r="Q39" s="47"/>
+      <c r="R39" s="47"/>
+      <c r="S39" s="47"/>
+      <c r="T39" s="47"/>
+      <c r="U39" s="47"/>
+      <c r="V39" s="47"/>
+      <c r="W39" s="47"/>
+      <c r="X39" s="47"/>
+      <c r="Y39" s="58"/>
+      <c r="Z39" s="58"/>
+      <c r="AA39" s="58"/>
+      <c r="AB39" s="58"/>
       <c r="AC39" s="1"/>
       <c r="AF39" s="1"/>
-      <c r="AG39" s="22" t="s">
+      <c r="AG39" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="AH39" s="22"/>
-      <c r="AI39" s="22" t="s">
+      <c r="AH39" s="47"/>
+      <c r="AI39" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="AJ39" s="22"/>
-      <c r="AK39" s="22"/>
-      <c r="AL39" s="22"/>
-      <c r="AM39" s="22"/>
-      <c r="AN39" s="22"/>
-      <c r="AO39" s="27" t="s">
+      <c r="AJ39" s="47"/>
+      <c r="AK39" s="47"/>
+      <c r="AL39" s="47"/>
+      <c r="AM39" s="47"/>
+      <c r="AN39" s="47"/>
+      <c r="AO39" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="AP39" s="27"/>
+      <c r="AP39" s="60"/>
       <c r="AQ39" s="1"/>
       <c r="AT39" s="3"/>
       <c r="AU39" s="3"/>
-      <c r="AV39" s="25"/>
-      <c r="AW39" s="25"/>
-      <c r="AX39" s="25"/>
-      <c r="AY39" s="25"/>
-      <c r="AZ39" s="25"/>
-      <c r="BA39" s="25"/>
-      <c r="BB39" s="25"/>
-      <c r="BC39" s="25"/>
+      <c r="AV39" s="16"/>
+      <c r="AW39" s="16"/>
+      <c r="AX39" s="16"/>
+      <c r="AY39" s="16"/>
+      <c r="AZ39" s="16"/>
+      <c r="BA39" s="16"/>
+      <c r="BB39" s="16"/>
+      <c r="BC39" s="16"/>
       <c r="BD39" s="3"/>
       <c r="BE39" s="3"/>
     </row>
-    <row r="40" spans="4:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:57" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D40" s="1"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="61"/>
-      <c r="J40" s="62"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="46"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="9"/>
@@ -5017,25 +5017,25 @@
       <c r="S40" s="10"/>
       <c r="T40" s="10"/>
       <c r="U40" s="10"/>
-      <c r="V40" s="14"/>
-      <c r="W40" s="14"/>
-      <c r="X40" s="14"/>
-      <c r="Y40" s="15"/>
-      <c r="Z40" s="15"/>
-      <c r="AA40" s="15"/>
-      <c r="AB40" s="15"/>
+      <c r="V40" s="62"/>
+      <c r="W40" s="62"/>
+      <c r="X40" s="62"/>
+      <c r="Y40" s="57"/>
+      <c r="Z40" s="57"/>
+      <c r="AA40" s="57"/>
+      <c r="AB40" s="57"/>
       <c r="AC40" s="1"/>
       <c r="AF40" s="1"/>
-      <c r="AG40" s="22"/>
-      <c r="AH40" s="22"/>
-      <c r="AI40" s="22"/>
-      <c r="AJ40" s="22"/>
-      <c r="AK40" s="22"/>
-      <c r="AL40" s="22"/>
-      <c r="AM40" s="22"/>
-      <c r="AN40" s="22"/>
-      <c r="AO40" s="27"/>
-      <c r="AP40" s="27"/>
+      <c r="AG40" s="47"/>
+      <c r="AH40" s="47"/>
+      <c r="AI40" s="47"/>
+      <c r="AJ40" s="47"/>
+      <c r="AK40" s="47"/>
+      <c r="AL40" s="47"/>
+      <c r="AM40" s="47"/>
+      <c r="AN40" s="47"/>
+      <c r="AO40" s="60"/>
+      <c r="AP40" s="60"/>
       <c r="AQ40" s="1"/>
       <c r="AT40" s="3"/>
       <c r="AU40" s="3"/>
@@ -5050,16 +5050,16 @@
       <c r="BD40" s="3"/>
       <c r="BE40" s="3"/>
     </row>
-    <row r="41" spans="4:57" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:57" x14ac:dyDescent="0.4">
       <c r="D41" s="1"/>
-      <c r="E41" s="48" t="s">
+      <c r="E41" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="9"/>
@@ -5071,38 +5071,38 @@
       <c r="S41" s="10"/>
       <c r="T41" s="10"/>
       <c r="U41" s="10"/>
-      <c r="V41" s="14"/>
-      <c r="W41" s="14"/>
-      <c r="X41" s="14"/>
-      <c r="Y41" s="15"/>
-      <c r="Z41" s="15"/>
-      <c r="AA41" s="15"/>
-      <c r="AB41" s="15"/>
+      <c r="V41" s="62"/>
+      <c r="W41" s="62"/>
+      <c r="X41" s="62"/>
+      <c r="Y41" s="57"/>
+      <c r="Z41" s="57"/>
+      <c r="AA41" s="57"/>
+      <c r="AB41" s="57"/>
       <c r="AC41" s="1"/>
       <c r="AF41" s="1"/>
-      <c r="AG41" s="21">
+      <c r="AG41" s="56">
         <v>1</v>
       </c>
-      <c r="AH41" s="21"/>
-      <c r="AI41" s="26" t="s">
+      <c r="AH41" s="56"/>
+      <c r="AI41" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="AJ41" s="26"/>
-      <c r="AK41" s="26"/>
-      <c r="AL41" s="26"/>
-      <c r="AM41" s="26"/>
-      <c r="AN41" s="26"/>
-      <c r="AO41" s="26">
+      <c r="AJ41" s="59"/>
+      <c r="AK41" s="59"/>
+      <c r="AL41" s="59"/>
+      <c r="AM41" s="59"/>
+      <c r="AN41" s="59"/>
+      <c r="AO41" s="59">
         <v>6</v>
       </c>
-      <c r="AP41" s="26"/>
+      <c r="AP41" s="59"/>
       <c r="AQ41" s="1"/>
       <c r="AT41" s="3"/>
-      <c r="AU41" s="19" t="s">
+      <c r="AU41" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="AV41" s="19"/>
-      <c r="AW41" s="19"/>
+      <c r="AV41" s="14"/>
+      <c r="AW41" s="14"/>
       <c r="AX41" s="6"/>
       <c r="AY41" s="7"/>
       <c r="AZ41" s="7"/>
@@ -5112,14 +5112,14 @@
       <c r="BD41" s="8"/>
       <c r="BE41" s="3"/>
     </row>
-    <row r="42" spans="4:57" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:57" x14ac:dyDescent="0.4">
       <c r="D42" s="1"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="9"/>
@@ -5131,32 +5131,32 @@
       <c r="S42" s="10"/>
       <c r="T42" s="10"/>
       <c r="U42" s="10"/>
-      <c r="V42" s="14"/>
-      <c r="W42" s="14"/>
-      <c r="X42" s="14"/>
-      <c r="Y42" s="15"/>
-      <c r="Z42" s="15"/>
-      <c r="AA42" s="15"/>
-      <c r="AB42" s="15"/>
+      <c r="V42" s="62"/>
+      <c r="W42" s="62"/>
+      <c r="X42" s="62"/>
+      <c r="Y42" s="57"/>
+      <c r="Z42" s="57"/>
+      <c r="AA42" s="57"/>
+      <c r="AB42" s="57"/>
       <c r="AC42" s="1"/>
       <c r="AF42" s="1"/>
-      <c r="AG42" s="21"/>
-      <c r="AH42" s="21"/>
-      <c r="AI42" s="26"/>
-      <c r="AJ42" s="26"/>
-      <c r="AK42" s="26"/>
-      <c r="AL42" s="26"/>
-      <c r="AM42" s="26"/>
-      <c r="AN42" s="26"/>
-      <c r="AO42" s="26"/>
-      <c r="AP42" s="26"/>
+      <c r="AG42" s="56"/>
+      <c r="AH42" s="56"/>
+      <c r="AI42" s="59"/>
+      <c r="AJ42" s="59"/>
+      <c r="AK42" s="59"/>
+      <c r="AL42" s="59"/>
+      <c r="AM42" s="59"/>
+      <c r="AN42" s="59"/>
+      <c r="AO42" s="59"/>
+      <c r="AP42" s="59"/>
       <c r="AQ42" s="1"/>
       <c r="AT42" s="3"/>
-      <c r="AU42" s="19" t="s">
+      <c r="AU42" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="AV42" s="19"/>
-      <c r="AW42" s="40"/>
+      <c r="AV42" s="14"/>
+      <c r="AW42" s="17"/>
       <c r="AX42" s="6"/>
       <c r="AY42" s="7"/>
       <c r="AZ42" s="7"/>
@@ -5166,16 +5166,16 @@
       <c r="BD42" s="8"/>
       <c r="BE42" s="3"/>
     </row>
-    <row r="43" spans="4:57" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:57" x14ac:dyDescent="0.4">
       <c r="D43" s="1"/>
-      <c r="E43" s="53">
+      <c r="E43" s="37">
         <v>6734</v>
       </c>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="9"/>
@@ -5187,25 +5187,25 @@
       <c r="S43" s="10"/>
       <c r="T43" s="10"/>
       <c r="U43" s="10"/>
-      <c r="V43" s="14"/>
-      <c r="W43" s="14"/>
-      <c r="X43" s="14"/>
-      <c r="Y43" s="15"/>
-      <c r="Z43" s="15"/>
-      <c r="AA43" s="15"/>
-      <c r="AB43" s="15"/>
+      <c r="V43" s="62"/>
+      <c r="W43" s="62"/>
+      <c r="X43" s="62"/>
+      <c r="Y43" s="57"/>
+      <c r="Z43" s="57"/>
+      <c r="AA43" s="57"/>
+      <c r="AB43" s="57"/>
       <c r="AC43" s="1"/>
       <c r="AF43" s="1"/>
-      <c r="AG43" s="21"/>
-      <c r="AH43" s="21"/>
-      <c r="AI43" s="26"/>
-      <c r="AJ43" s="26"/>
-      <c r="AK43" s="26"/>
-      <c r="AL43" s="26"/>
-      <c r="AM43" s="26"/>
-      <c r="AN43" s="26"/>
-      <c r="AO43" s="26"/>
-      <c r="AP43" s="26"/>
+      <c r="AG43" s="56"/>
+      <c r="AH43" s="56"/>
+      <c r="AI43" s="59"/>
+      <c r="AJ43" s="59"/>
+      <c r="AK43" s="59"/>
+      <c r="AL43" s="59"/>
+      <c r="AM43" s="59"/>
+      <c r="AN43" s="59"/>
+      <c r="AO43" s="59"/>
+      <c r="AP43" s="59"/>
       <c r="AQ43" s="1"/>
       <c r="AT43" s="3"/>
       <c r="AU43" s="3"/>
@@ -5220,14 +5220,14 @@
       <c r="BD43" s="1"/>
       <c r="BE43" s="3"/>
     </row>
-    <row r="44" spans="4:57" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:57" x14ac:dyDescent="0.4">
       <c r="D44" s="1"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="9"/>
@@ -5239,48 +5239,48 @@
       <c r="S44" s="10"/>
       <c r="T44" s="10"/>
       <c r="U44" s="10"/>
-      <c r="V44" s="14"/>
-      <c r="W44" s="14"/>
-      <c r="X44" s="14"/>
-      <c r="Y44" s="15"/>
-      <c r="Z44" s="15"/>
-      <c r="AA44" s="15"/>
-      <c r="AB44" s="15"/>
+      <c r="V44" s="62"/>
+      <c r="W44" s="62"/>
+      <c r="X44" s="62"/>
+      <c r="Y44" s="57"/>
+      <c r="Z44" s="57"/>
+      <c r="AA44" s="57"/>
+      <c r="AB44" s="57"/>
       <c r="AC44" s="1"/>
       <c r="AF44" s="1"/>
-      <c r="AG44" s="32">
+      <c r="AG44" s="54">
         <v>2</v>
       </c>
-      <c r="AH44" s="32"/>
-      <c r="AI44" s="24" t="s">
+      <c r="AH44" s="54"/>
+      <c r="AI44" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="AJ44" s="24"/>
-      <c r="AK44" s="24"/>
-      <c r="AL44" s="24"/>
-      <c r="AM44" s="24"/>
-      <c r="AN44" s="24"/>
-      <c r="AO44" s="24">
+      <c r="AJ44" s="12"/>
+      <c r="AK44" s="12"/>
+      <c r="AL44" s="12"/>
+      <c r="AM44" s="12"/>
+      <c r="AN44" s="12"/>
+      <c r="AO44" s="12">
         <v>5</v>
       </c>
-      <c r="AP44" s="24"/>
+      <c r="AP44" s="12"/>
       <c r="AQ44" s="1"/>
       <c r="AT44" s="3"/>
       <c r="AU44" s="1"/>
       <c r="AV44" s="1"/>
       <c r="AW44" s="1"/>
-      <c r="AX44" s="16" t="s">
+      <c r="AX44" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="AY44" s="17"/>
-      <c r="AZ44" s="17"/>
-      <c r="BA44" s="18"/>
+      <c r="AY44" s="19"/>
+      <c r="AZ44" s="19"/>
+      <c r="BA44" s="20"/>
       <c r="BB44" s="1"/>
       <c r="BC44" s="1"/>
       <c r="BD44" s="1"/>
       <c r="BE44" s="3"/>
     </row>
-    <row r="45" spans="4:57" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:57" x14ac:dyDescent="0.4">
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -5299,25 +5299,25 @@
       <c r="S45" s="10"/>
       <c r="T45" s="10"/>
       <c r="U45" s="10"/>
-      <c r="V45" s="14"/>
-      <c r="W45" s="14"/>
-      <c r="X45" s="14"/>
-      <c r="Y45" s="15"/>
-      <c r="Z45" s="15"/>
-      <c r="AA45" s="15"/>
-      <c r="AB45" s="15"/>
+      <c r="V45" s="62"/>
+      <c r="W45" s="62"/>
+      <c r="X45" s="62"/>
+      <c r="Y45" s="57"/>
+      <c r="Z45" s="57"/>
+      <c r="AA45" s="57"/>
+      <c r="AB45" s="57"/>
       <c r="AC45" s="1"/>
       <c r="AF45" s="1"/>
-      <c r="AG45" s="32"/>
-      <c r="AH45" s="32"/>
-      <c r="AI45" s="24"/>
-      <c r="AJ45" s="24"/>
-      <c r="AK45" s="24"/>
-      <c r="AL45" s="24"/>
-      <c r="AM45" s="24"/>
-      <c r="AN45" s="24"/>
-      <c r="AO45" s="24"/>
-      <c r="AP45" s="24"/>
+      <c r="AG45" s="54"/>
+      <c r="AH45" s="54"/>
+      <c r="AI45" s="12"/>
+      <c r="AJ45" s="12"/>
+      <c r="AK45" s="12"/>
+      <c r="AL45" s="12"/>
+      <c r="AM45" s="12"/>
+      <c r="AN45" s="12"/>
+      <c r="AO45" s="12"/>
+      <c r="AP45" s="12"/>
       <c r="AQ45" s="1"/>
       <c r="AT45" s="3"/>
       <c r="AU45" s="3"/>
@@ -5332,7 +5332,7 @@
       <c r="BD45" s="3"/>
       <c r="BE45" s="3"/>
     </row>
-    <row r="46" spans="4:57" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:57" x14ac:dyDescent="0.4">
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -5351,31 +5351,31 @@
       <c r="S46" s="10"/>
       <c r="T46" s="10"/>
       <c r="U46" s="10"/>
-      <c r="V46" s="14"/>
-      <c r="W46" s="14"/>
-      <c r="X46" s="14"/>
-      <c r="Y46" s="15"/>
-      <c r="Z46" s="15"/>
-      <c r="AA46" s="15"/>
-      <c r="AB46" s="15"/>
+      <c r="V46" s="62"/>
+      <c r="W46" s="62"/>
+      <c r="X46" s="62"/>
+      <c r="Y46" s="57"/>
+      <c r="Z46" s="57"/>
+      <c r="AA46" s="57"/>
+      <c r="AB46" s="57"/>
       <c r="AC46" s="1"/>
       <c r="AF46" s="1"/>
-      <c r="AG46" s="31">
+      <c r="AG46" s="53">
         <v>3</v>
       </c>
-      <c r="AH46" s="31"/>
-      <c r="AI46" s="19" t="s">
+      <c r="AH46" s="53"/>
+      <c r="AI46" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AJ46" s="19"/>
-      <c r="AK46" s="19"/>
-      <c r="AL46" s="19"/>
-      <c r="AM46" s="19"/>
-      <c r="AN46" s="19"/>
-      <c r="AO46" s="30">
+      <c r="AJ46" s="14"/>
+      <c r="AK46" s="14"/>
+      <c r="AL46" s="14"/>
+      <c r="AM46" s="14"/>
+      <c r="AN46" s="14"/>
+      <c r="AO46" s="36">
         <v>4</v>
       </c>
-      <c r="AP46" s="30"/>
+      <c r="AP46" s="36"/>
       <c r="AQ46" s="1"/>
       <c r="AT46" s="3"/>
       <c r="AU46" s="3"/>
@@ -5390,16 +5390,16 @@
       <c r="BD46" s="3"/>
       <c r="BE46" s="3"/>
     </row>
-    <row r="47" spans="4:57" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:57" x14ac:dyDescent="0.4">
       <c r="D47" s="1"/>
-      <c r="E47" s="41" t="s">
+      <c r="E47" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="43"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="26"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="9"/>
@@ -5411,31 +5411,31 @@
       <c r="S47" s="10"/>
       <c r="T47" s="10"/>
       <c r="U47" s="10"/>
-      <c r="V47" s="14"/>
-      <c r="W47" s="14"/>
-      <c r="X47" s="14"/>
-      <c r="Y47" s="15"/>
-      <c r="Z47" s="15"/>
-      <c r="AA47" s="15"/>
-      <c r="AB47" s="15"/>
+      <c r="V47" s="62"/>
+      <c r="W47" s="62"/>
+      <c r="X47" s="62"/>
+      <c r="Y47" s="57"/>
+      <c r="Z47" s="57"/>
+      <c r="AA47" s="57"/>
+      <c r="AB47" s="57"/>
       <c r="AC47" s="1"/>
       <c r="AF47" s="1"/>
-      <c r="AG47" s="19">
+      <c r="AG47" s="14">
         <v>4</v>
       </c>
-      <c r="AH47" s="19"/>
-      <c r="AI47" s="19" t="s">
+      <c r="AH47" s="14"/>
+      <c r="AI47" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AJ47" s="19"/>
-      <c r="AK47" s="19"/>
-      <c r="AL47" s="19"/>
-      <c r="AM47" s="19"/>
-      <c r="AN47" s="19"/>
-      <c r="AO47" s="30">
+      <c r="AJ47" s="14"/>
+      <c r="AK47" s="14"/>
+      <c r="AL47" s="14"/>
+      <c r="AM47" s="14"/>
+      <c r="AN47" s="14"/>
+      <c r="AO47" s="36">
         <v>3</v>
       </c>
-      <c r="AP47" s="30"/>
+      <c r="AP47" s="36"/>
       <c r="AQ47" s="1"/>
       <c r="AT47" s="3"/>
       <c r="AU47" s="3"/>
@@ -5450,14 +5450,14 @@
       <c r="BD47" s="3"/>
       <c r="BE47" s="3"/>
     </row>
-    <row r="48" spans="4:57" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:57" x14ac:dyDescent="0.4">
       <c r="D48" s="1"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="45"/>
-      <c r="J48" s="46"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="29"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="9"/>
@@ -5469,31 +5469,31 @@
       <c r="S48" s="10"/>
       <c r="T48" s="10"/>
       <c r="U48" s="10"/>
-      <c r="V48" s="14"/>
-      <c r="W48" s="14"/>
-      <c r="X48" s="14"/>
-      <c r="Y48" s="15"/>
-      <c r="Z48" s="15"/>
-      <c r="AA48" s="15"/>
-      <c r="AB48" s="15"/>
+      <c r="V48" s="62"/>
+      <c r="W48" s="62"/>
+      <c r="X48" s="62"/>
+      <c r="Y48" s="57"/>
+      <c r="Z48" s="57"/>
+      <c r="AA48" s="57"/>
+      <c r="AB48" s="57"/>
       <c r="AC48" s="1"/>
       <c r="AF48" s="1"/>
-      <c r="AG48" s="19">
+      <c r="AG48" s="14">
         <v>5</v>
       </c>
-      <c r="AH48" s="19"/>
-      <c r="AI48" s="19" t="s">
+      <c r="AH48" s="14"/>
+      <c r="AI48" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AJ48" s="19"/>
-      <c r="AK48" s="19"/>
-      <c r="AL48" s="19"/>
-      <c r="AM48" s="19"/>
-      <c r="AN48" s="19"/>
-      <c r="AO48" s="30">
+      <c r="AJ48" s="14"/>
+      <c r="AK48" s="14"/>
+      <c r="AL48" s="14"/>
+      <c r="AM48" s="14"/>
+      <c r="AN48" s="14"/>
+      <c r="AO48" s="36">
         <v>2</v>
       </c>
-      <c r="AP48" s="30"/>
+      <c r="AP48" s="36"/>
       <c r="AQ48" s="1"/>
       <c r="AT48" s="3"/>
       <c r="AU48" s="3"/>
@@ -5508,7 +5508,7 @@
       <c r="BD48" s="3"/>
       <c r="BE48" s="3"/>
     </row>
-    <row r="49" spans="4:57" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:57" x14ac:dyDescent="0.4">
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -5527,31 +5527,31 @@
       <c r="S49" s="10"/>
       <c r="T49" s="10"/>
       <c r="U49" s="10"/>
-      <c r="V49" s="14"/>
-      <c r="W49" s="14"/>
-      <c r="X49" s="14"/>
-      <c r="Y49" s="15"/>
-      <c r="Z49" s="15"/>
-      <c r="AA49" s="15"/>
-      <c r="AB49" s="15"/>
+      <c r="V49" s="62"/>
+      <c r="W49" s="62"/>
+      <c r="X49" s="62"/>
+      <c r="Y49" s="57"/>
+      <c r="Z49" s="57"/>
+      <c r="AA49" s="57"/>
+      <c r="AB49" s="57"/>
       <c r="AC49" s="1"/>
       <c r="AF49" s="1"/>
-      <c r="AG49" s="19">
+      <c r="AG49" s="14">
         <v>6</v>
       </c>
-      <c r="AH49" s="19"/>
-      <c r="AI49" s="19" t="s">
+      <c r="AH49" s="14"/>
+      <c r="AI49" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="AJ49" s="19"/>
-      <c r="AK49" s="19"/>
-      <c r="AL49" s="19"/>
-      <c r="AM49" s="19"/>
-      <c r="AN49" s="19"/>
-      <c r="AO49" s="30">
+      <c r="AJ49" s="14"/>
+      <c r="AK49" s="14"/>
+      <c r="AL49" s="14"/>
+      <c r="AM49" s="14"/>
+      <c r="AN49" s="14"/>
+      <c r="AO49" s="36">
         <v>1</v>
       </c>
-      <c r="AP49" s="30"/>
+      <c r="AP49" s="36"/>
       <c r="AQ49" s="1"/>
       <c r="AT49" s="3"/>
       <c r="AU49" s="3"/>
@@ -5566,16 +5566,16 @@
       <c r="BD49" s="3"/>
       <c r="BE49" s="3"/>
     </row>
-    <row r="50" spans="4:57" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:57" x14ac:dyDescent="0.4">
       <c r="D50" s="1"/>
-      <c r="E50" s="47" t="s">
+      <c r="E50" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="49"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="32"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="9"/>
@@ -5587,13 +5587,13 @@
       <c r="S50" s="10"/>
       <c r="T50" s="10"/>
       <c r="U50" s="10"/>
-      <c r="V50" s="14"/>
-      <c r="W50" s="14"/>
-      <c r="X50" s="14"/>
-      <c r="Y50" s="15"/>
-      <c r="Z50" s="15"/>
-      <c r="AA50" s="15"/>
-      <c r="AB50" s="15"/>
+      <c r="V50" s="62"/>
+      <c r="W50" s="62"/>
+      <c r="X50" s="62"/>
+      <c r="Y50" s="57"/>
+      <c r="Z50" s="57"/>
+      <c r="AA50" s="57"/>
+      <c r="AB50" s="57"/>
       <c r="AC50" s="1"/>
       <c r="AF50" s="1"/>
       <c r="AG50" s="1"/>
@@ -5620,14 +5620,14 @@
       <c r="BD50" s="3"/>
       <c r="BE50" s="3"/>
     </row>
-    <row r="51" spans="4:57" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:57" x14ac:dyDescent="0.4">
       <c r="D51" s="1"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="51"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="52"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="35"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="9"/>
@@ -5639,13 +5639,13 @@
       <c r="S51" s="10"/>
       <c r="T51" s="10"/>
       <c r="U51" s="10"/>
-      <c r="V51" s="14"/>
-      <c r="W51" s="14"/>
-      <c r="X51" s="14"/>
-      <c r="Y51" s="15"/>
-      <c r="Z51" s="15"/>
-      <c r="AA51" s="15"/>
-      <c r="AB51" s="15"/>
+      <c r="V51" s="62"/>
+      <c r="W51" s="62"/>
+      <c r="X51" s="62"/>
+      <c r="Y51" s="57"/>
+      <c r="Z51" s="57"/>
+      <c r="AA51" s="57"/>
+      <c r="AB51" s="57"/>
       <c r="AC51" s="1"/>
       <c r="AF51" s="1"/>
       <c r="AG51" s="1"/>
@@ -5672,7 +5672,7 @@
       <c r="BD51" s="3"/>
       <c r="BE51" s="3"/>
     </row>
-    <row r="52" spans="4:57" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:57" x14ac:dyDescent="0.4">
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -5724,14 +5724,14 @@
       <c r="BD52" s="3"/>
       <c r="BE52" s="3"/>
     </row>
-    <row r="53" spans="4:57" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:57" x14ac:dyDescent="0.4">
       <c r="D53" s="1"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1" t="s">
         <v>39</v>
@@ -5778,14 +5778,14 @@
       <c r="BD53" s="3"/>
       <c r="BE53" s="3"/>
     </row>
-    <row r="54" spans="4:57" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:57" x14ac:dyDescent="0.4">
       <c r="D54" s="1"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -5830,7 +5830,7 @@
       <c r="BD54" s="3"/>
       <c r="BE54" s="3"/>
     </row>
-    <row r="55" spans="4:57" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:57" x14ac:dyDescent="0.4">
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -5882,7 +5882,7 @@
       <c r="BD55" s="3"/>
       <c r="BE55" s="3"/>
     </row>
-    <row r="56" spans="4:57" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:57" x14ac:dyDescent="0.4">
       <c r="AF56" s="1"/>
       <c r="AG56" s="1"/>
       <c r="AH56" s="1"/>
@@ -5908,7 +5908,7 @@
       <c r="BD56" s="3"/>
       <c r="BE56" s="3"/>
     </row>
-    <row r="57" spans="4:57" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:57" x14ac:dyDescent="0.4">
       <c r="AF57" s="1"/>
       <c r="AG57" s="1"/>
       <c r="AH57" s="1"/>
@@ -5934,7 +5934,7 @@
       <c r="BD57" s="3"/>
       <c r="BE57" s="3"/>
     </row>
-    <row r="58" spans="4:57" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:57" x14ac:dyDescent="0.4">
       <c r="AF58" s="1"/>
       <c r="AG58" s="1"/>
       <c r="AH58" s="1"/>
@@ -5960,7 +5960,7 @@
       <c r="BD58" s="3"/>
       <c r="BE58" s="3"/>
     </row>
-    <row r="59" spans="4:57" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:57" x14ac:dyDescent="0.4">
       <c r="AF59" s="1"/>
       <c r="AG59" s="1"/>
       <c r="AH59" s="1"/>
@@ -5986,7 +5986,7 @@
       <c r="BD59" s="3"/>
       <c r="BE59" s="3"/>
     </row>
-    <row r="60" spans="4:57" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:57" x14ac:dyDescent="0.4">
       <c r="AF60" s="1"/>
       <c r="AG60" s="1"/>
       <c r="AH60" s="1"/>
@@ -6012,7 +6012,7 @@
       <c r="BD60" s="3"/>
       <c r="BE60" s="3"/>
     </row>
-    <row r="61" spans="4:57" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:57" x14ac:dyDescent="0.4">
       <c r="AF61" s="1"/>
       <c r="AG61" s="1"/>
       <c r="AH61" s="1"/>
@@ -6040,15 +6040,99 @@
     </row>
   </sheetData>
   <mergeCells count="128">
-    <mergeCell ref="BH4:BI5"/>
-    <mergeCell ref="BJ5:BQ8"/>
-    <mergeCell ref="BI10:BR10"/>
-    <mergeCell ref="BI11:BR11"/>
-    <mergeCell ref="BI12:BR12"/>
-    <mergeCell ref="BI13:BR13"/>
-    <mergeCell ref="BI14:BR14"/>
-    <mergeCell ref="BI15:BR15"/>
-    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="Y49:AB49"/>
+    <mergeCell ref="Y50:AB50"/>
+    <mergeCell ref="Y51:AB51"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="Y44:AB44"/>
+    <mergeCell ref="Y45:AB45"/>
+    <mergeCell ref="Y46:AB46"/>
+    <mergeCell ref="Y47:AB47"/>
+    <mergeCell ref="Y48:AB48"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="T16:AA19"/>
+    <mergeCell ref="AG41:AH43"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="Y40:AB40"/>
+    <mergeCell ref="Y41:AB41"/>
+    <mergeCell ref="Y42:AB42"/>
+    <mergeCell ref="Y43:AB43"/>
+    <mergeCell ref="V38:X39"/>
+    <mergeCell ref="Y38:AB39"/>
+    <mergeCell ref="AF34:AG35"/>
+    <mergeCell ref="AH35:AO37"/>
+    <mergeCell ref="AI41:AN43"/>
+    <mergeCell ref="AO41:AP43"/>
+    <mergeCell ref="AO39:AP40"/>
+    <mergeCell ref="AG39:AH40"/>
+    <mergeCell ref="AI39:AN40"/>
+    <mergeCell ref="K35:V37"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="V41:X41"/>
+    <mergeCell ref="V42:X42"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="G27:L28"/>
+    <mergeCell ref="AO38:AP38"/>
+    <mergeCell ref="AO49:AP49"/>
+    <mergeCell ref="AO48:AP48"/>
+    <mergeCell ref="AI49:AN49"/>
+    <mergeCell ref="AI48:AN48"/>
+    <mergeCell ref="AG49:AH49"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="AG47:AH47"/>
+    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="AG44:AH45"/>
+    <mergeCell ref="AI47:AN47"/>
+    <mergeCell ref="AO44:AP45"/>
+    <mergeCell ref="AO47:AP47"/>
+    <mergeCell ref="AO46:AP46"/>
+    <mergeCell ref="AI44:AN45"/>
+    <mergeCell ref="AI46:AN46"/>
+    <mergeCell ref="AI38:AN38"/>
+    <mergeCell ref="AG38:AH38"/>
+    <mergeCell ref="AW29:AZ29"/>
+    <mergeCell ref="AW27:AZ27"/>
+    <mergeCell ref="AW28:AZ28"/>
+    <mergeCell ref="AG11:AP11"/>
+    <mergeCell ref="AH5:AO8"/>
+    <mergeCell ref="AG10:AP10"/>
+    <mergeCell ref="AF4:AG5"/>
+    <mergeCell ref="AT4:AU5"/>
+    <mergeCell ref="AW23:AZ23"/>
+    <mergeCell ref="AW24:AZ24"/>
+    <mergeCell ref="AW25:AZ25"/>
+    <mergeCell ref="AW26:AZ26"/>
+    <mergeCell ref="AV5:BC7"/>
+    <mergeCell ref="Z27:AB27"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="V4:Y5"/>
+    <mergeCell ref="AB4:AC5"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="S8:AB9"/>
+    <mergeCell ref="S6:AB7"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="V13:V14"/>
     <mergeCell ref="AT34:AU35"/>
     <mergeCell ref="AV36:BC39"/>
     <mergeCell ref="AU41:AW41"/>
@@ -6073,101 +6157,17 @@
     <mergeCell ref="R4:S5"/>
     <mergeCell ref="D7:O7"/>
     <mergeCell ref="E12:G12"/>
-    <mergeCell ref="Z27:AB27"/>
-    <mergeCell ref="S28:V28"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="V4:Y5"/>
-    <mergeCell ref="AB4:AC5"/>
-    <mergeCell ref="AB10:AB11"/>
-    <mergeCell ref="AA10:AA11"/>
-    <mergeCell ref="Z10:Z11"/>
-    <mergeCell ref="Y10:Y11"/>
-    <mergeCell ref="X10:X11"/>
-    <mergeCell ref="W10:W11"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="S8:AB9"/>
-    <mergeCell ref="S6:AB7"/>
+    <mergeCell ref="BH4:BI5"/>
+    <mergeCell ref="BJ5:BQ8"/>
+    <mergeCell ref="BI10:BR10"/>
+    <mergeCell ref="BI11:BR11"/>
+    <mergeCell ref="BI12:BR12"/>
+    <mergeCell ref="BI13:BR13"/>
+    <mergeCell ref="BI14:BR14"/>
+    <mergeCell ref="BI15:BR15"/>
+    <mergeCell ref="M4:O4"/>
     <mergeCell ref="E9:N10"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="AW29:AZ29"/>
-    <mergeCell ref="AW27:AZ27"/>
-    <mergeCell ref="AW28:AZ28"/>
-    <mergeCell ref="AG11:AP11"/>
-    <mergeCell ref="AH5:AO8"/>
-    <mergeCell ref="AG10:AP10"/>
-    <mergeCell ref="AF4:AG5"/>
-    <mergeCell ref="AT4:AU5"/>
-    <mergeCell ref="AW23:AZ23"/>
-    <mergeCell ref="AW24:AZ24"/>
-    <mergeCell ref="AW25:AZ25"/>
-    <mergeCell ref="AW26:AZ26"/>
-    <mergeCell ref="AV5:BC7"/>
-    <mergeCell ref="G27:L28"/>
-    <mergeCell ref="AO38:AP38"/>
-    <mergeCell ref="AO49:AP49"/>
-    <mergeCell ref="AO48:AP48"/>
-    <mergeCell ref="AI49:AN49"/>
-    <mergeCell ref="AI48:AN48"/>
-    <mergeCell ref="AG49:AH49"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="AG47:AH47"/>
-    <mergeCell ref="AG46:AH46"/>
-    <mergeCell ref="AG44:AH45"/>
-    <mergeCell ref="AI47:AN47"/>
-    <mergeCell ref="AO44:AP45"/>
-    <mergeCell ref="AO47:AP47"/>
-    <mergeCell ref="AO46:AP46"/>
-    <mergeCell ref="AI44:AN45"/>
-    <mergeCell ref="AI46:AN46"/>
-    <mergeCell ref="AI38:AN38"/>
-    <mergeCell ref="AG38:AH38"/>
     <mergeCell ref="H15:K15"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="T16:AA19"/>
-    <mergeCell ref="AG41:AH43"/>
-    <mergeCell ref="S22:V22"/>
-    <mergeCell ref="Y40:AB40"/>
-    <mergeCell ref="Y41:AB41"/>
-    <mergeCell ref="Y42:AB42"/>
-    <mergeCell ref="Y43:AB43"/>
-    <mergeCell ref="V38:X39"/>
-    <mergeCell ref="Y38:AB39"/>
-    <mergeCell ref="AF34:AG35"/>
-    <mergeCell ref="AH35:AO37"/>
-    <mergeCell ref="AI41:AN43"/>
-    <mergeCell ref="AO41:AP43"/>
-    <mergeCell ref="AO39:AP40"/>
-    <mergeCell ref="AG39:AH40"/>
-    <mergeCell ref="AI39:AN40"/>
-    <mergeCell ref="K35:V37"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="V41:X41"/>
-    <mergeCell ref="V42:X42"/>
-    <mergeCell ref="V43:X43"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="V50:X50"/>
-    <mergeCell ref="V51:X51"/>
-    <mergeCell ref="Y49:AB49"/>
-    <mergeCell ref="Y50:AB50"/>
-    <mergeCell ref="Y51:AB51"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="V45:X45"/>
-    <mergeCell ref="V46:X46"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="Y44:AB44"/>
-    <mergeCell ref="Y45:AB45"/>
-    <mergeCell ref="Y46:AB46"/>
-    <mergeCell ref="Y47:AB47"/>
-    <mergeCell ref="Y48:AB48"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="S23:V23"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
